--- a/sf-house-excel/src/test/resources/ExcelSessionCopy.xlsx
+++ b/sf-house-excel/src/test/resources/ExcelSessionCopy.xlsx
@@ -1,18 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nijianfeng/projects/sf-code/sf-excel/src/test/java/cn/sf/excel/common/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr documentId="10_ncr:8100000_{B4CCCBF0-8CA2-4864-A204-858E44794242}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="520" windowWidth="25600" windowHeight="14200"/>
+    <workbookView windowHeight="17535" windowWidth="28725" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="465"/>
   </bookViews>
   <sheets>
-    <sheet name="测试" sheetId="1" r:id="rId1"/>
+    <sheet name="测试" r:id="rId1" sheetId="1"/>
     <sheet name="拷贝的sheet1" r:id="rId5" sheetId="2"/>
     <sheet name="拷贝的sheet2" r:id="rId6" sheetId="3"/>
   </sheets>
@@ -37,35 +33,35 @@
   </si>
   <si>
     <t>字符串</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>zi fu c</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啦啦啦</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>lll</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>啊啊啊</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>a a a</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>哈哈哈</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>h h h</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数字</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>shu zi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,28 +92,28 @@
   </si>
   <si>
     <t>范围</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>fan wei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>fou</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>ri qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,61 +165,61 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -240,10 +236,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -278,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +397,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -410,13 +406,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -426,7 +422,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -435,7 +431,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -444,7 +440,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -454,12 +450,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -490,7 +486,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -509,7 +505,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -521,22 +517,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.83203125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="28.6640625" collapsed="true"/>
-    <col min="5" max="5" style="1" width="8.83203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="13.83203125" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="8.83203125" collapsed="true"/>
+    <col min="1" max="1" style="1" width="8.875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="1" width="28.625" collapsed="false"/>
+    <col min="5" max="5" style="1" width="8.875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="13.875" collapsed="false"/>
+    <col min="7" max="16384" style="1" width="8.875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -615,28 +611,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="true" hidden="false"/>
+    <col min="1" max="1" width="8.875" customWidth="true" hidden="false"/>
     <col min="2" max="2" width="13.0" customWidth="true" hidden="false"/>
-    <col min="3" max="3" width="21.6640625" customWidth="true" hidden="false"/>
-    <col min="4" max="4" width="28.6640625" customWidth="true" hidden="false"/>
-    <col min="5" max="5" width="8.83203125" customWidth="true" hidden="false"/>
-    <col min="6" max="6" width="13.83203125" customWidth="true" hidden="false"/>
+    <col min="3" max="3" width="21.625" customWidth="true" hidden="false"/>
+    <col min="4" max="4" width="28.625" customWidth="true" hidden="false"/>
+    <col min="5" max="5" width="8.875" customWidth="true" hidden="false"/>
+    <col min="6" max="6" width="13.875" customWidth="true" hidden="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.0" customHeight="true">
+    <row r="1" ht="13.5" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -656,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="14.0" customHeight="true">
+    <row r="2" ht="13.5" customHeight="true">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -676,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="14.0" customHeight="true">
+    <row r="3" ht="13.5" customHeight="true">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -693,7 +689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.0" customHeight="true">
+    <row r="4" ht="13.5" customHeight="true">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
@@ -717,21 +713,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="true" hidden="false"/>
+    <col min="1" max="1" width="8.875" customWidth="true" hidden="false"/>
     <col min="2" max="2" width="13.0" customWidth="true" hidden="false"/>
-    <col min="3" max="3" width="21.6640625" customWidth="true" hidden="false"/>
-    <col min="4" max="4" width="28.6640625" customWidth="true" hidden="false"/>
-    <col min="5" max="5" width="8.83203125" customWidth="true" hidden="false"/>
-    <col min="6" max="6" width="13.83203125" customWidth="true" hidden="false"/>
+    <col min="3" max="3" width="21.625" customWidth="true" hidden="false"/>
+    <col min="4" max="4" width="28.625" customWidth="true" hidden="false"/>
+    <col min="5" max="5" width="8.875" customWidth="true" hidden="false"/>
+    <col min="6" max="6" width="13.875" customWidth="true" hidden="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.0" customHeight="true">
+    <row r="1" ht="13.5" customHeight="true">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -751,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="14.0" customHeight="true">
+    <row r="2" ht="13.5" customHeight="true">
       <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
@@ -771,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="14.0" customHeight="true">
+    <row r="3" ht="13.5" customHeight="true">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -788,7 +784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="14.0" customHeight="true">
+    <row r="4" ht="13.5" customHeight="true">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
